--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_15_31.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_15_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2502180.446876856</v>
+        <v>2499886.851420262</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>411.547702772954</v>
@@ -677,7 +677,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247044</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
         <v>206.6581849802338</v>
@@ -719,13 +719,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>286.9977044806038</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>29.00207592975813</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>162.164475974744</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>185.2705165323378</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -905,7 +905,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>295.4325326002335</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
@@ -914,7 +914,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>129.5398680316083</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247746</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734084892</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1066,13 +1066,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>134.631133566647</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
@@ -1111,16 +1111,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>97.38331399798702</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1148,10 +1148,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,19 +1184,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>186.8460807091497</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>338.0377980055136</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1291,19 +1291,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>71.6703719699171</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>241.1325567395864</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1373,7 +1373,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206816</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1531,22 +1531,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>61.66004604094461</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1771,13 +1771,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>45.66054613217651</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -1822,13 +1822,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>66.12869588327256</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -2008,13 +2008,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>66.25628701154712</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2050,10 +2050,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2062,7 +2062,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>246.2025596887052</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>79.05856366754516</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2248,16 +2248,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>214.85520491952</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2324,13 +2324,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2476,10 +2476,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>123.9815576456779</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -2491,7 +2491,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>25.52471385612597</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2725,7 +2725,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2761,10 +2761,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>206.5509998577711</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>41.01175877060098</v>
       </c>
     </row>
     <row r="29">
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634824</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2956,19 +2956,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>18.70843787977262</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>103.8146543619973</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3193,16 +3193,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>32.84316668127778</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>206.5509998577715</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3424,10 +3424,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -3436,13 +3436,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>125.285163539206</v>
+        <v>123.9815576456779</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3509,7 +3509,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,16 +3661,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>20.43112068613158</v>
       </c>
       <c r="D40" t="n">
-        <v>108.3764982651495</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3679,7 +3679,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3749,7 +3749,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G41" t="n">
         <v>409.8033385187866</v>
@@ -3800,7 +3800,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>168.97752971242</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3904,16 +3904,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>193.7663624135851</v>
       </c>
     </row>
     <row r="44">
@@ -4135,10 +4135,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -4150,7 +4150,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>123.9815576456779</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,10 +4183,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>66.25628701154714</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1606.635933406614</v>
+        <v>844.329830759459</v>
       </c>
       <c r="C2" t="n">
-        <v>1606.635933406614</v>
+        <v>844.329830759459</v>
       </c>
       <c r="D2" t="n">
-        <v>1248.370234799863</v>
+        <v>844.329830759459</v>
       </c>
       <c r="E2" t="n">
-        <v>1248.370234799863</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F2" t="n">
         <v>837.3843300102556</v>
@@ -4325,7 +4325,7 @@
         <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
         <v>187.5281822362819</v>
@@ -4334,10 +4334,10 @@
         <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4346,34 +4346,34 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q2" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R2" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400156</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2353.593687005981</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>2353.593687005981</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="V2" t="n">
-        <v>2022.53079966241</v>
+        <v>1897.83159218888</v>
       </c>
       <c r="W2" t="n">
-        <v>2022.53079966241</v>
+        <v>1607.934920996351</v>
       </c>
       <c r="X2" t="n">
-        <v>2022.53079966241</v>
+        <v>1234.469162735271</v>
       </c>
       <c r="Y2" t="n">
-        <v>1993.235773470735</v>
+        <v>844.329830759459</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966398</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155128</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542614</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488059</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756909</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182533</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>238.4273302370162</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>507.2413987429764</v>
+        <v>343.6260600182044</v>
       </c>
       <c r="L3" t="n">
-        <v>801.9449557744482</v>
+        <v>638.3296170496761</v>
       </c>
       <c r="M3" t="n">
-        <v>1165.206974733668</v>
+        <v>1272.508600828715</v>
       </c>
       <c r="N3" t="n">
-        <v>1552.492103330614</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O3" t="n">
-        <v>1884.562538506776</v>
+        <v>1991.864164601822</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.02341329261</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S3" t="n">
-        <v>2426.617474780097</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T3" t="n">
-        <v>2232.610846175227</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047139</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
-        <v>1769.368633815396</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087195</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881662</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
-        <v>1099.519478116708</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1082.549477544054</v>
+        <v>201.3634259803388</v>
       </c>
       <c r="C4" t="n">
-        <v>918.7469765594642</v>
+        <v>201.3634259803388</v>
       </c>
       <c r="D4" t="n">
-        <v>768.6303371471284</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E4" t="n">
-        <v>620.7172435647353</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F4" t="n">
-        <v>473.8272960668249</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G4" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312203</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020476</v>
@@ -4495,7 +4495,7 @@
         <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.219460709659</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
@@ -4507,7 +4507,7 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
         <v>1533.86271359008</v>
@@ -4516,22 +4516,22 @@
         <v>1337.233965749941</v>
       </c>
       <c r="T4" t="n">
-        <v>1337.233965749941</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U4" t="n">
-        <v>1337.233965749941</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="V4" t="n">
-        <v>1082.549477544054</v>
+        <v>859.5709967387894</v>
       </c>
       <c r="W4" t="n">
-        <v>1082.549477544054</v>
+        <v>570.1538267018288</v>
       </c>
       <c r="X4" t="n">
-        <v>1082.549477544054</v>
+        <v>570.1538267018288</v>
       </c>
       <c r="Y4" t="n">
-        <v>1082.549477544054</v>
+        <v>383.0118908105785</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2232.598233480553</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="C5" t="n">
-        <v>1863.635716540141</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D5" t="n">
-        <v>1505.370017933391</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E5" t="n">
-        <v>1119.581765335147</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389512</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839476</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
         <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520487</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V5" t="n">
-        <v>3009.337405520487</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W5" t="n">
-        <v>3009.337405520487</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X5" t="n">
-        <v>3009.337405520487</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="Y5" t="n">
-        <v>2619.198073544675</v>
+        <v>1941.127034633561</v>
       </c>
     </row>
     <row r="6">
@@ -4620,37 +4620,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158128</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4659,13 +4659,13 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410637</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4677,7 +4677,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4686,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>944.7237329438971</v>
+        <v>669.4690763615333</v>
       </c>
       <c r="C7" t="n">
-        <v>775.7875500159902</v>
+        <v>500.5328934336264</v>
       </c>
       <c r="D7" t="n">
-        <v>625.6709106036544</v>
+        <v>350.4162540212907</v>
       </c>
       <c r="E7" t="n">
-        <v>477.7578170212613</v>
+        <v>202.5031604388976</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>202.5031604388976</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>202.5031604388976</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764912</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.33877587604</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
-        <v>1617.076751502318</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935977</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1735.608663915318</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T7" t="n">
-        <v>1513.842048484844</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="U7" t="n">
-        <v>1224.739181610487</v>
+        <v>1326.59460854119</v>
       </c>
       <c r="V7" t="n">
-        <v>1224.739181610487</v>
+        <v>1071.910120335303</v>
       </c>
       <c r="W7" t="n">
-        <v>1224.739181610487</v>
+        <v>1071.910120335303</v>
       </c>
       <c r="X7" t="n">
-        <v>1126.372197774137</v>
+        <v>1071.910120335303</v>
       </c>
       <c r="Y7" t="n">
-        <v>1126.372197774137</v>
+        <v>851.1175411917731</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1899.13013587303</v>
+        <v>1643.543434242328</v>
       </c>
       <c r="C8" t="n">
-        <v>1530.167618932618</v>
+        <v>1274.580917301916</v>
       </c>
       <c r="D8" t="n">
-        <v>1171.901920325867</v>
+        <v>916.3152186951659</v>
       </c>
       <c r="E8" t="n">
-        <v>786.1136677276232</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F8" t="n">
-        <v>779.1681669784198</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218343</v>
@@ -4805,13 +4805,13 @@
         <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060172</v>
@@ -4832,22 +4832,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3026.581738278539</v>
       </c>
       <c r="U8" t="n">
-        <v>2961.784676410103</v>
+        <v>2773.051261552376</v>
       </c>
       <c r="V8" t="n">
-        <v>2630.721789066532</v>
+        <v>2773.051261552376</v>
       </c>
       <c r="W8" t="n">
-        <v>2630.721789066532</v>
+        <v>2420.282606282261</v>
       </c>
       <c r="X8" t="n">
-        <v>2289.269467848841</v>
+        <v>2420.282606282261</v>
       </c>
       <c r="Y8" t="n">
-        <v>1899.13013587303</v>
+        <v>2030.14327430645</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
@@ -4884,49 +4884,49 @@
         <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>752.7622949738579</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="C10" t="n">
-        <v>583.826112045951</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="D10" t="n">
-        <v>433.7094726336153</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="E10" t="n">
-        <v>285.7963790512222</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F10" t="n">
-        <v>138.9064315533118</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G10" t="n">
         <v>66.51211643218343</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1927.294548088493</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1672.610059882606</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W10" t="n">
-        <v>1383.192889845645</v>
+        <v>636.6559970312343</v>
       </c>
       <c r="X10" t="n">
-        <v>1155.203338947628</v>
+        <v>636.6559970312343</v>
       </c>
       <c r="Y10" t="n">
-        <v>934.4107598040977</v>
+        <v>415.8634178877041</v>
       </c>
     </row>
     <row r="11">
@@ -5015,10 +5015,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5030,61 +5030,61 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5112,28 +5112,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1814.118720444889</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O12" t="n">
-        <v>2366.028450684176</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P12" t="n">
         <v>2516.421633107662</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>763.7541388327597</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>594.8179559048529</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>444.7013164925171</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="E13" t="n">
-        <v>444.7013164925171</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F13" t="n">
-        <v>297.8113689946067</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5215,34 +5215,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853356</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580256</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580256</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.963083580256</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2227.361618603197</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1938.286391947395</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1683.601903741508</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1394.184733704547</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1166.19518280653</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>945.4026036629995</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5258,13 +5258,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5273,13 +5273,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5312,13 +5312,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5355,28 +5355,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>691.1951506745238</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
-        <v>1318.79311422913</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O15" t="n">
-        <v>1870.702844468417</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
-        <v>2294.325993963485</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>929.7309773356195</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G16" t="n">
         <v>317.6151975578602</v>
@@ -5470,16 +5470,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1621.58919134635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1332.172021309389</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1332.172021309389</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1111.379442165859</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5501,16 +5501,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111715</v>
@@ -5522,13 +5522,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5595,19 +5595,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>184.7035232280589</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>680.0291294438176</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438176</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="P18" t="n">
         <v>2283.159972732779</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>916.3099000622261</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C19" t="n">
-        <v>747.3737171343192</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D19" t="n">
-        <v>597.2570777219835</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E19" t="n">
-        <v>449.3439841395904</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F19" t="n">
-        <v>302.45403664168</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
         <v>235.5284942057738</v>
@@ -5698,25 +5698,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1546.740494934013</v>
+        <v>1185.011911417804</v>
       </c>
       <c r="X19" t="n">
-        <v>1318.750944035996</v>
+        <v>957.0223605197863</v>
       </c>
       <c r="Y19" t="n">
-        <v>1097.958364892466</v>
+        <v>736.2297813762561</v>
       </c>
     </row>
     <row r="20">
@@ -5747,25 +5747,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5826,22 +5826,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="M21" t="n">
-        <v>1074.481071167373</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N21" t="n">
-        <v>1702.079034721979</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
         <v>1859.536823237711</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>707.672526468518</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C22" t="n">
-        <v>538.7363435406111</v>
+        <v>615.644930552589</v>
       </c>
       <c r="D22" t="n">
-        <v>388.6197041282753</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E22" t="n">
-        <v>240.7066105458822</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F22" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="K24" t="n">
         <v>429.5088224239596</v>
       </c>
       <c r="L24" t="n">
-        <v>680.0291294438176</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>733.4550657171301</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>564.5188827892232</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D25" t="n">
-        <v>414.4022433768874</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E25" t="n">
-        <v>266.4891497944943</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F25" t="n">
-        <v>119.599202296584</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G25" t="n">
-        <v>119.599202296584</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6175,22 +6175,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>915.1035305473698</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6224,7 +6224,7 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
@@ -6233,13 +6233,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>579.1554649516142</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M27" t="n">
-        <v>1103.652278938886</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N27" t="n">
-        <v>1731.250242493492</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>707.672526468518</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C28" t="n">
-        <v>538.7363435406111</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D28" t="n">
-        <v>388.6197041282753</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E28" t="n">
-        <v>240.7066105458822</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F28" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
         <v>93.81666304797187</v>
@@ -6409,25 +6409,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>889.3209912987577</v>
+        <v>874.8686257536381</v>
       </c>
     </row>
     <row r="29">
@@ -6440,73 +6440,73 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,25 +6534,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273909</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>740.5562989961526</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>740.5562989961526</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1368.15426255076</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O30" t="n">
         <v>1859.536823237711</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>849.3843576263199</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>680.448174698413</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>530.3315352860773</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E31" t="n">
-        <v>382.4184417036842</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F31" t="n">
-        <v>235.5284942057738</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797191</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2197.062545487568</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1363.885660588918</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1031.03282245656</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6692,28 +6692,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6774,28 +6774,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>739.5354516872161</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1336.913939313768</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N33" t="n">
-        <v>1964.511902868375</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2516.421633107662</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
         <v>2516.421633107662</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>707.672526468518</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C34" t="n">
-        <v>538.7363435406111</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D34" t="n">
-        <v>388.6197041282753</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="E34" t="n">
-        <v>240.7066105458822</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="F34" t="n">
-        <v>93.81666304797187</v>
+        <v>268.7034100454483</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6856,52 +6856,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>889.3209912987577</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="35">
@@ -6923,34 +6923,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7011,25 +7011,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K36" t="n">
-        <v>95.58405025273905</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L36" t="n">
-        <v>506.2737913123336</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M36" t="n">
-        <v>1103.652278938886</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N36" t="n">
-        <v>1731.250242493492</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
         <v>2283.159972732779</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>916.3099000622266</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>747.3737171343197</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D37" t="n">
-        <v>597.2570777219839</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E37" t="n">
-        <v>449.3439841395908</v>
+        <v>365.9405071576781</v>
       </c>
       <c r="F37" t="n">
-        <v>302.4540366416804</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="G37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1546.740494934014</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1318.750944035996</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1097.958364892466</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7154,7 +7154,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
         <v>1204.759558406469</v>
@@ -7169,25 +7169,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111701</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L39" t="n">
-        <v>904.4616873845483</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="M39" t="n">
-        <v>1501.8401750111</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N39" t="n">
-        <v>2129.438138565707</v>
+        <v>1320.560501433898</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>916.3099000622266</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>747.3737171343197</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D40" t="n">
-        <v>637.9025067654818</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E40" t="n">
-        <v>489.9894131830887</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F40" t="n">
         <v>343.0994656851783</v>
       </c>
       <c r="G40" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1546.740494934014</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1318.750944035996</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1097.958364892466</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7391,10 +7391,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
         <v>793.7736536168611</v>
@@ -7406,28 +7406,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
         <v>4562.265728852255</v>
@@ -7448,10 +7448,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7488,22 +7488,22 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N42" t="n">
-        <v>1859.536823237711</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
         <v>2283.159972732779</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>707.672526468518</v>
+        <v>721.7774158311365</v>
       </c>
       <c r="C43" t="n">
-        <v>538.7363435406111</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="D43" t="n">
-        <v>388.6197041282753</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>240.7066105458822</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7612,7 +7612,7 @@
         <v>1099.149479058937</v>
       </c>
       <c r="Y43" t="n">
-        <v>878.3568999154069</v>
+        <v>903.4258806613763</v>
       </c>
     </row>
     <row r="44">
@@ -7634,31 +7634,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7722,28 +7722,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M45" t="n">
-        <v>1074.481071167373</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N45" t="n">
-        <v>1702.079034721979</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
         <v>2516.421633107662</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>849.3843576263199</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>680.448174698413</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D46" t="n">
-        <v>530.3315352860773</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E46" t="n">
-        <v>382.4184417036842</v>
+        <v>365.9405071576781</v>
       </c>
       <c r="F46" t="n">
-        <v>235.5284942057738</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7831,25 +7831,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2312.991837396757</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>2023.916610740955</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1769.232122535068</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1479.814952498107</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1251.82540160009</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>1031.03282245656</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8055,16 +8055,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>84.94186588374765</v>
+        <v>45.76488231024547</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>273.6534998179984</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8073,13 +8073,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154985</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8289,7 +8289,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>2.167155344068306e-13</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -8316,7 +8316,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>1.388111847688833e-12</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -10349,7 +10349,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -23419,22 +23419,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>121.5862749664513</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>103.8640922513242</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23659,13 +23659,13 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>99.76050189075474</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23710,13 +23710,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>186.0089474405555</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23896,13 +23896,13 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>99.26785128072173</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23938,10 +23938,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23950,7 +23950,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>40.32043864788582</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24124,10 +24124,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>88.18825743108268</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24136,16 +24136,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,7 +24175,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>10.85445046951719</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24364,10 +24364,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>24.63391537253442</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24379,7 +24379,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>114.7699989900979</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24415,7 +24415,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24613,7 +24613,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -24649,10 +24649,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>10.85445046951719</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>177.5728945814938</v>
       </c>
     </row>
     <row r="29">
@@ -24844,19 +24844,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>121.5862749664513</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24889,7 +24889,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>114.7699989900974</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25081,19 +25081,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>132.6809716109911</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,10 +25123,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>10.85445046951673</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25312,10 +25312,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25324,13 +25324,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>40.23897475306289</v>
+        <v>41.54258064659093</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,10 +25360,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25549,16 +25549,16 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>146.8157004124963</v>
       </c>
       <c r="D40" t="n">
-        <v>40.23897475306285</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25597,10 +25597,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25783,7 +25783,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>10.85445046951727</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25792,16 +25792,16 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>24.81829093850965</v>
       </c>
     </row>
     <row r="44">
@@ -26023,10 +26023,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26038,7 +26038,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>16.31315520054598</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26071,10 +26071,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>151.1491633157411</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>796117.0941729409</v>
+        <v>796117.0941729408</v>
       </c>
     </row>
     <row r="8">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>796117.0941729409</v>
+        <v>796117.0941729408</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>796117.0941729409</v>
+        <v>796117.0941729408</v>
       </c>
     </row>
     <row r="15">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>636307.3716448201</v>
+        <v>636307.37164482</v>
       </c>
       <c r="C2" t="n">
-        <v>636307.3716448195</v>
+        <v>636307.37164482</v>
       </c>
       <c r="D2" t="n">
         <v>636307.3716448195</v>
       </c>
       <c r="E2" t="n">
-        <v>625538.6147597547</v>
+        <v>625538.6147597546</v>
       </c>
       <c r="F2" t="n">
-        <v>625538.6147597546</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="G2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.614759755</v>
       </c>
       <c r="H2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.614759755</v>
       </c>
       <c r="I2" t="n">
         <v>625538.614759755</v>
       </c>
       <c r="J2" t="n">
+        <v>625538.614759755</v>
+      </c>
+      <c r="K2" t="n">
         <v>625538.6147597549</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
+        <v>625538.6147597547</v>
+      </c>
+      <c r="M2" t="n">
+        <v>625538.6147597549</v>
+      </c>
+      <c r="N2" t="n">
         <v>625538.6147597546</v>
       </c>
-      <c r="L2" t="n">
+      <c r="O2" t="n">
         <v>625538.6147597549</v>
       </c>
-      <c r="M2" t="n">
+      <c r="P2" t="n">
         <v>625538.6147597547</v>
-      </c>
-      <c r="N2" t="n">
-        <v>625538.6147597547</v>
-      </c>
-      <c r="O2" t="n">
-        <v>625538.6147597547</v>
-      </c>
-      <c r="P2" t="n">
-        <v>625538.6147597549</v>
       </c>
     </row>
     <row r="3">
@@ -26366,10 +26366,10 @@
         <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
-        <v>203438.7416121051</v>
+        <v>203438.7416121059</v>
       </c>
       <c r="D3" t="n">
-        <v>5.307101673679426e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>325412.4618073551</v>
@@ -26381,7 +26381,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26390,13 +26390,13 @@
         <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
-        <v>49110.09270605462</v>
+        <v>49110.09270605451</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551172</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,19 +26415,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>137930.4104072218</v>
+        <v>137930.4104072219</v>
       </c>
       <c r="C4" t="n">
-        <v>89134.17909312027</v>
+        <v>89134.17909312015</v>
       </c>
       <c r="D4" t="n">
-        <v>89134.17909312017</v>
+        <v>89134.17909312015</v>
       </c>
       <c r="E4" t="n">
         <v>9947.144321768897</v>
       </c>
       <c r="F4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768921</v>
       </c>
       <c r="G4" t="n">
         <v>9947.144321768897</v>
@@ -26436,25 +26436,25 @@
         <v>9947.144321768897</v>
       </c>
       <c r="I4" t="n">
-        <v>9947.144321768916</v>
+        <v>9947.144321768963</v>
       </c>
       <c r="J4" t="n">
         <v>9947.144321768897</v>
       </c>
       <c r="K4" t="n">
-        <v>9947.144321768817</v>
+        <v>9947.144321768921</v>
       </c>
       <c r="L4" t="n">
+        <v>9947.144321768914</v>
+      </c>
+      <c r="M4" t="n">
         <v>9947.144321768899</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>9947.144321768897</v>
       </c>
-      <c r="N4" t="n">
-        <v>9947.144321768918</v>
-      </c>
       <c r="O4" t="n">
-        <v>9947.144321768912</v>
+        <v>9947.144321768921</v>
       </c>
       <c r="P4" t="n">
         <v>9947.144321768897</v>
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="C5" t="n">
         <v>107933.9405613933</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-709312.5947781664</v>
+        <v>-709312.5947781665</v>
       </c>
       <c r="C6" t="n">
-        <v>235800.5103782009</v>
+        <v>235800.5103782006</v>
       </c>
       <c r="D6" t="n">
-        <v>439239.2519903055</v>
+        <v>439239.2519903061</v>
       </c>
       <c r="E6" t="n">
-        <v>189056.4788067237</v>
+        <v>189021.7408812878</v>
       </c>
       <c r="F6" t="n">
-        <v>514468.9406140786</v>
+        <v>514434.2026886431</v>
       </c>
       <c r="G6" t="n">
-        <v>514468.9406140788</v>
+        <v>514434.2026886432</v>
       </c>
       <c r="H6" t="n">
-        <v>514468.9406140788</v>
+        <v>514434.2026886431</v>
       </c>
       <c r="I6" t="n">
-        <v>514468.940614079</v>
+        <v>514434.2026886433</v>
       </c>
       <c r="J6" t="n">
-        <v>346863.7628040962</v>
+        <v>346829.0248786607</v>
       </c>
       <c r="K6" t="n">
-        <v>465358.8479080242</v>
+        <v>465324.1099825887</v>
       </c>
       <c r="L6" t="n">
-        <v>514468.9406140788</v>
+        <v>514434.202688643</v>
       </c>
       <c r="M6" t="n">
-        <v>429413.9126785669</v>
+        <v>429379.1747531313</v>
       </c>
       <c r="N6" t="n">
-        <v>514468.9406140787</v>
+        <v>514434.2026886429</v>
       </c>
       <c r="O6" t="n">
-        <v>514468.9406140788</v>
+        <v>514434.2026886431</v>
       </c>
       <c r="P6" t="n">
-        <v>514468.9406140788</v>
+        <v>514434.202688643</v>
       </c>
     </row>
   </sheetData>
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022929</v>
@@ -26814,7 +26814,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26957,13 +26957,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>155.7118084757584</v>
+        <v>155.711808475759</v>
       </c>
       <c r="D3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>278.1987997483754</v>
@@ -26975,7 +26975,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26984,7 +26984,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>190.8166233022533</v>
+        <v>190.816623302254</v>
       </c>
       <c r="D4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000392</v>
+        <v>640.584832100039</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.816623302254</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022533</v>
+        <v>190.816623302254</v>
       </c>
       <c r="L4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,19 +27376,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27439,13 +27439,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>62.24326423680924</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>357.2358627262955</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>5.082345123883869</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27588,7 +27588,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
@@ -27597,13 +27597,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>33.31413681975695</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27625,7 +27625,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>111.4435131414779</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27670,19 +27670,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>256.6980706244453</v>
       </c>
     </row>
     <row r="6">
@@ -27786,13 +27786,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>10.1238813476738</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,10 +27819,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004737</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27831,16 +27831,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>128.3263413910501</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,19 +27904,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>17.07188943047043</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>31.69330267295544</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28011,19 +28011,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>94.35543628911113</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>45.39044159700464</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28093,7 +28093,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -28287,7 +28287,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>-3.283086236927361e-12</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -29044,13 +29044,13 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29509,7 +29509,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-1.800799509510398e-12</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -30229,7 +30229,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -30469,7 +30469,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -30520,7 +30520,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -31045,28 +31045,28 @@
         <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
-        <v>144.7659768979355</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857144</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
         <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730006</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342226</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
         <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190646</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
         <v>405.5015080147052</v>
@@ -31081,7 +31081,7 @@
         <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,7 +31118,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.009120711347161</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
         <v>19.40387634380021</v>
@@ -31130,10 +31130,10 @@
         <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>324.4289352178439</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177245</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
         <v>509.0653662040589</v>
@@ -31142,7 +31142,7 @@
         <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405676</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
         <v>383.6539365378626</v>
@@ -31154,10 +31154,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997903</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000174</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
         <v>0.1321789941675764</v>
@@ -31203,19 +31203,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335773</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>195.694251168232</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L4" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>264.0341136849628</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
         <v>257.7559726067959</v>
@@ -31230,16 +31230,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759588</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069563</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024988</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31355,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970248</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31835,13 +31835,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473072</v>
@@ -31850,13 +31850,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>426.9501404413636</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>285.8867128925984</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -32075,19 +32075,19 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>405.6377363145776</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
@@ -32096,10 +32096,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>364.3208035245835</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32245,7 +32245,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
         <v>926.5868626460027</v>
@@ -32315,22 +32315,22 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>229.6463482471742</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>270.4557004614713</v>
       </c>
       <c r="Q18" t="n">
         <v>375.599612848529</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>395.1848490935915</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>301.6445156724565</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32792,25 +32792,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>391.605194951448</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>314.3020503687028</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33020,22 +33020,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>671.9287955253226</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>616.9033572954396</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
@@ -33044,10 +33044,10 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33251,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33263,37 +33263,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>638.9422653403551</v>
+        <v>332.1692388321076</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>300.5543663814921</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>379.4203056753705</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33655,34 +33655,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663268</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33725,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33737,37 +33737,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>258.3858318060507</v>
       </c>
       <c r="L36" t="n">
-        <v>553.3925020622929</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>467.1465236515247</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>687.0167715190038</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34208,7 +34208,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
@@ -34220,13 +34220,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>320.9147064709964</v>
+        <v>342.490526454265</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>375.599612848529</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34442,31 +34442,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>301.6445156724565</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>134.7284881171895</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
@@ -34699,28 +34699,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407339</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
         <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457279</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376316</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
         <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637951</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.2916633093991</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,16 +34775,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
-        <v>271.5293621272326</v>
+        <v>232.3523785537303</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378503</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820406</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="N3" t="n">
         <v>391.197099592874</v>
@@ -34793,10 +34793,10 @@
         <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>568.1422977634695</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,7 +34854,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870597</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
@@ -34863,7 +34863,7 @@
         <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
-        <v>303.6179906468034</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
         <v>301.8881449860245</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597702</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306617</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35483,13 +35483,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
         <v>500.328895167433</v>
@@ -35498,13 +35498,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>295.6084283580303</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>151.9123054782682</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35583,7 +35583,7 @@
         <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066204</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
         <v>120.4022572998984</v>
@@ -35723,19 +35723,19 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
@@ -35744,10 +35744,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>224.339029438562</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35893,7 +35893,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O17" t="n">
         <v>696.488651224316</v>
@@ -35963,22 +35963,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>91.80490927281522</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>136.4812930471411</v>
       </c>
       <c r="Q18" t="n">
         <v>235.6178387625075</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>253.0508151715732</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>159.048271228012</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36440,25 +36440,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>253.0508151715738</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>171.7058059242583</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36668,22 +36668,22 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>529.7947616033043</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>485.5616452121063</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
@@ -36692,10 +36692,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>496.3460208959107</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37151,25 +37151,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>161.9999866016179</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>120.5443928316917</v>
       </c>
       <c r="L36" t="n">
-        <v>414.8381222824187</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>328.5921438716505</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>544.4205270745593</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37856,7 +37856,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
@@ -37868,13 +37868,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>189.5729943876631</v>
+        <v>211.1488143709317</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625075</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38090,31 +38090,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>159.048271228012</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0.7540807028592577</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>37.00975247789211</v>
